--- a/medicine/Mort/Décès_en_1978/Décès_en_1978.xlsx
+++ b/medicine/Mort/Décès_en_1978/Décès_en_1978.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1978</t>
+          <t>Décès_en_1978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1978</t>
+          <t>Décès_en_1978</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Roger Cortet, flûtiste français (° 1910).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roger Cortet, flûtiste français (° 1910).
 Maurice Crozet, designer et affichiste français (° 26 juillet 1895).
 Victor Jean Desmeures, peintre, lithographe et designer en tissus français (° 18 mars 1895).
 Franz Dienert, footballeur allemand  (° 1900).
 Mon Rivera, tromboniste (mais aussi multi-instrumentiste) et compositeur portoricain (° 1899).
 Georges Vereeken, homme politique belge (° 1896).
 Feliks Więcek, coureur cycliste polonais (° 1904).
-John Wilms, écrivain et homme politique belge (° 1893).
-Janvier
-1er janvier : Segundo Pascual, joueur et entraîneur de football franco-espagnol (° 21 mai 1917).
+John Wilms, écrivain et homme politique belge (° 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Segundo Pascual, joueur et entraîneur de football franco-espagnol (° 21 mai 1917).
 2 janvier : Jules Merle, peintre français (° 1er juin 1883).
 8 janvier : André François-Poncet, diplomate français (° 13 juin 1887).
 12 janvier : Marcel Bascoulard, dessinateur et poète français (° 10 février 1913).
@@ -548,14 +599,48 @@
 14 janvier :
 Clarence Dill, homme politique américain (° 21 septembre 1884).
 Kurt Gödel, logicien et mathématicien autrichien naturalisé américain (° 28 avril 1906).
-15 janvier : Émile Rummelhardt, joueur et entraîneur de football français (° 12 janvier 1914)[1].
+15 janvier : Émile Rummelhardt, joueur et entraîneur de football français (° 12 janvier 1914).
 18 janvier : Carl Betz, acteur de théâtre, de cinéma et de télévision américain (° 9 mars 1921).
 24 janvier : Georges Speicher, coureur cycliste français (° 8 juin 1907).
 26 janvier : Leo Genn, acteur et juriste britannique (° 9 août 1905).
 27 janvier : Marguerite Canal, musicienne, compositrice, chef d'orchestre, enseignante et pianiste française (° 29 janvier 1890).
-30 janvier : Damia (chanteuse), chanteuse française (° 5 décembre 1889).
-Février
-9 février : Costante Girardengo, coureur cycliste italien (° 18 mars 1893).
+30 janvier : Damia (chanteuse), chanteuse française (° 5 décembre 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9 février : Costante Girardengo, coureur cycliste italien (° 18 mars 1893).
 11 février : Éric-Paul Stekel, compositeur et chef d'orchestre français d'origine autrichienne (° 27 juin 1898).
 13 février : Abdelmalek Temmam, homme politique algérien (° 1920).
 14 février : Greta Prozor, comédienne et professeur d'art dramatique  (° 3 janvier 1886).
@@ -569,9 +654,43 @@
 23 février : Paul Yoshigoro Taguchi, cardinal japonais, archevêque d'Osaka (° 20 juillet 1902).
 25 février : Louis Bissinger, peintre français (° 24 avril 1899).
 27 février : Vadim Salmanov, compositeur russe puis soviétique (° 4 novembre 1912).
-28 février : Philip Ahn, acteur américain (° 29 mars 1905).
-Mars
-6 mars : Micheál Mac Liammóir, acteur, dramaturge, impresario, écrivain, poète et peintre irlandais d'origine britannique (° 25 octobre 1899).
+28 février : Philip Ahn, acteur américain (° 29 mars 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 mars : Micheál Mac Liammóir, acteur, dramaturge, impresario, écrivain, poète et peintre irlandais d'origine britannique (° 25 octobre 1899).
 8 mars : Jacques Grello, acteur et chansonnier français (° 28 avril 1915).
 9 mars : Isaac Païles, peintre français de l'École de Paris (° 25 décembre 1895).
 11 mars :
@@ -595,9 +714,43 @@
 29 mars : Ștefania Cristescu-Golopenția, ethnologue roumaine (° 12 février 1908).
 31 mars :
 Romain Gijssels, coureur cycliste belge (° 10 mars 1907).
-Eva Mameli Calvino, botaniste italienne (° 12 février 1886).
-Avril
-1er avril : Claire-Lise Monnier, peintre suisse (° 20 juillet 1894).
+Eva Mameli Calvino, botaniste italienne (° 12 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Claire-Lise Monnier, peintre suisse (° 20 juillet 1894).
 3 avril : Alighiero Ridolfi, coureur cycliste italien (° 22 août 1924).
 6 avril : Nicolas Nabokov, compositeur, musicologue et écrivain américain d'origine russe (° 17 avril 1903).
 13 avril : Paul McGrath, acteur américain (° 11 avril 1904).
@@ -615,9 +768,43 @@
 Zenta Mauriņa, écrivaine, essayiste et philologue lettonne (° 15 décembre 1897).
 Seiji Tōgō, peintre japonais (° 28 avril 1897).
 28 avril : Shikanosuke Oka, peintre japonais de paysages (° 2 juillet 1898).
-29 avril : Yasuda Yukihiko, peintre japonais (° 16 février 1884).
-Mai
-1er mai : Aram Khatchatourian, compositeur soviétique/arménien (° 6 juin 1903).
+29 avril : Yasuda Yukihiko, peintre japonais (° 16 février 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Aram Khatchatourian, compositeur soviétique/arménien (° 6 juin 1903).
 5 mai : Ján Móry, compositeur et enseignant tchécolovaque (° 10 juillet 1892).
 8 mai : Key Sato, peintre japonais (° 28 octobre 1906).
 9 mai :
@@ -632,9 +819,43 @@
 23 mai :
 Roger Guit, peintre et dessinateur français (° 8 mai 1899).
 François Vibert, acteur de théâtre et de cinéma français (° 7 septembre 1891).
-24 mai : Cyrille Adoula, homme politique congolais (° 13 septembre 1921).
-Juin
-2 juin : Santiago Bernabéu, footballeur du Real Madrid (° 8 juin 1895).
+24 mai : Cyrille Adoula, homme politique congolais (° 13 septembre 1921).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Santiago Bernabéu, footballeur du Real Madrid (° 8 juin 1895).
 3 juin : So Phim, khmer rouge commandant de la zone est au Cambodge (° 1925).
 13 juin : Jean de Botton, peintre, sculpteur et graveur français (° 20 juin 1898).
 14 juin : Dox, poète et peintre malgache (° 13 janvier 1913).
@@ -649,9 +870,43 @@
 Antonio Calderara, peintre italien (° 28 octobre 1903).
 Josette Day, actrice française (° 31 juillet 1914).
 28 juin : Iuliu Hirțea, religieux roumain (° 13 avril 1914).
-29 juin : Bob Crane, acteur américain (° 13 juillet 1928).
-Juillet
-1er juillet : Maurice Martin, peintre paysagiste français (° 19 juillet 1894).
+29 juin : Bob Crane, acteur américain (° 13 juillet 1928).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Maurice Martin, peintre paysagiste français (° 19 juillet 1894).
 2 juillet :
 Pierre Charbonnier, peintre, décorateur et réalisateur français (° 24 août 1897).
 Christian d'Espic, chirurgien, peintre et graveur français (° 1er juillet 1901).
@@ -661,9 +916,43 @@
 17 juillet : Francetta Malloy, actrice américaine (° 17 octobre 1906).
 23 juillet : Danielle Collobert, écrivaine et poétesse française (° 23 juillet 1940).
 24 juillet : Vincent Robin d'Arba Desborough, historien et archéologue britannique (° 19 juillet 1914).
-30 juillet : Mohamed Hédi El Amri, écrivain et historien tunisien (° 1906).
-Août
-4 août : René Challan, compositeur de musique classique, imprésario et directeur artistique français (° 12 décembre 1910).
+30 juillet : Mohamed Hédi El Amri, écrivain et historien tunisien (° 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : René Challan, compositeur de musique classique, imprésario et directeur artistique français (° 12 décembre 1910).
 5 août : Michel Pandel, peintre et lithographe suisse (° 13 décembre 1929).
 6 août : Paul VI, né Giovanni Battista Montini, pape italien (° 26 septembre 1897).
 15 août : Leo Lemešić, joueur, arbitre et entraîneur de football serbe puis yougoslave (° 8 juin 1908).
@@ -684,9 +973,43 @@
 30 août :
 Geertruida Wijsmuller-Meijer, Juste parmi les nations, sauveteuse de 10 000 Juifs avant et pendant la Seconde Guerre mondiale (° 21 avril 1896).
 Henryk Zygalski, mathématicien et cryptologue polonais (° 15 juillet 1906).
-? août : Harrison Kerr, compositeur, éditeur, administrateur et éducateur américain (° 13 octobre 1897).
-Septembre
-1er septembre : Charles Brommesson, footballeur international suédois (° 12 août 1903).
+? août : Harrison Kerr, compositeur, éditeur, administrateur et éducateur américain (° 13 octobre 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Charles Brommesson, footballeur international suédois (° 12 août 1903).
 5 septembre :
 « Armillita Chico » (Fermín Espinosa Saucedo), matador mexicain (° 3 mai 1911).
 Jean Labasque, essayiste, peintre et graveur français (° 18 août 1896).
@@ -706,18 +1029,86 @@
 23 septembre : Jay Adler, acteur américain  (° 26 septembre 1896).
 24 septembre : Paul-Jacques Bonzon, écrivain français (° 31 août 1908).
 28 septembre : Jean-Paul Ier, né Albino Luciani, pape italien (° 17 octobre 1912).
-? septembre : Jean-Paul Alata, homme politique guinéen d'origine française (° 17 août 1924).
-Octobre
-5 octobre : Nadezhda Dukstulskaitė, pianiste lituanienne (° 5 mars 1912).
+? septembre : Jean-Paul Alata, homme politique guinéen d'origine française (° 17 août 1924).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre : Nadezhda Dukstulskaitė, pianiste lituanienne (° 5 mars 1912).
 9 octobre : Jacques Brel, auteur-compositeur-interprète belge (° 8 avril 1929).
 13 octobre : Gürsel Aksel, footballeur international turc devenu entraîneur (° 10 mai 1937).
 14 octobre : Bolesław Filipiak, cardinal polonais de la curie romaine (° 1er septembre 1901).
 18 octobre : Ramón Mercader, assassin de Léon Trotsky (° 7 février 1913).
 23 octobre : Jean-Eugène Bersier, peintre et graveur français (° 8 juin 1895).
 24 octobre : Luís Gallotti, homme politique brésilien (° 15 août 1904).
-25 octobre : Maurice Denis, homme politique belge (° 18 septembre 1916).
-Novembre
-5 novembre : Lucien-Marie Le Gardien, peintre français (° 3 juillet 1908).
+25 octobre : Maurice Denis, homme politique belge (° 18 septembre 1916).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5 novembre : Lucien-Marie Le Gardien, peintre français (° 3 juillet 1908).
 8 novembre : Norman Rockwell, illustrateur américain (° 3 février 1894).
 10 novembre : Theo Lingen, acteur, scénariste et réalisateur allemand (° 10 juin 1903).
 12 novembre :
@@ -737,15 +1128,49 @@
 Jacques Bergier, ingénieur chimiste, espion, journaliste et écrivain, de nationalités française et polonaise d'ascendance juive (° 8 août 1912).
 Hadj El Anka, précurseur et maître de la chanson chaâbi algérienne (° 20 mai 1907).
 24 novembre : Gaspard Rinaldi, coureur cycliste français (° 26 mai 1909).
-26 novembre : Oswaldo Minci, footballeur français (° 13 avril 1924)[2].
+26 novembre : Oswaldo Minci, footballeur français (° 13 avril 1924).
 27 novembre :
 George Moscone, homme politique américain (° 24 novembre 1929).
 Harvey Milk, homme politique américain (° 22 mai 1930).
 Joseph Marie Trinh-nhu-Khuê, cardinal vietnamien, archevêque de Hanoï (° 11 décembre 1898).
 28 novembre : André Morell, acteur britannique (° 20 août 1909).
-? novembre : William Granger Johnson, homme d'affaires et homme politique fidjien (° 28 juillet 1900).
-Décembre
-6 décembre : Abram Šterenberg, photographe russe d'origine ukrainienne. (° 1894).
+? novembre : William Granger Johnson, homme d'affaires et homme politique fidjien (° 28 juillet 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1978</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6 décembre : Abram Šterenberg, photographe russe d'origine ukrainienne. (° 1894).
 8 décembre : Golda Meir, ancienne première ministre d'Israël (° 3 mai 1898).
 10 décembre : Ed Wood, réalisateur, acteur, producteur, scénariste et monteur américain (° 10 octobre 1924).
 11 décembre : Jeanne Besnard-Fortin, peintre figurative française (° 3 décembre 1892).
